--- a/ozone/multistate/test_ozone_VTZP_MS_3_energies.xlsx
+++ b/ozone/multistate/test_ozone_VTZP_MS_3_energies.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.5729677153009658</v>
+        <v>-0.5729767853565673</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.569952130317688</v>
+        <v>-0.5715203881263733</v>
       </c>
       <c r="F2" t="n">
         <v>-225.15038093</v>
@@ -499,7 +499,7 @@
         <v>-224.57740433</v>
       </c>
       <c r="H2" t="n">
-        <v>-225.1473564603177</v>
+        <v>-225.1489247181264</v>
       </c>
     </row>
     <row r="3">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.5733921084937711</v>
+        <v>-0.5733950976508713</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5735675096511841</v>
+        <v>-0.5726697444915771</v>
       </c>
       <c r="F3" t="n">
         <v>-225.14553565</v>
@@ -531,7 +531,7 @@
         <v>-224.57213954</v>
       </c>
       <c r="H3" t="n">
-        <v>-225.1457070496512</v>
+        <v>-225.1448092844916</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.6034261017402697</v>
+        <v>-0.6034229178793995</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5999666452407837</v>
+        <v>-0.6017675995826721</v>
       </c>
       <c r="F4" t="n">
         <v>-225.15110821</v>
@@ -563,7 +563,7 @@
         <v>-224.54768734</v>
       </c>
       <c r="H4" t="n">
-        <v>-225.1476539852408</v>
+        <v>-225.1494549395827</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         <v>-0.5722291819875045</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5704987645149231</v>
+        <v>-0.5719949007034302</v>
       </c>
       <c r="F5" t="n">
         <v>-225.159891</v>
@@ -595,7 +595,7 @@
         <v>-224.5876625</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.1581612645149</v>
+        <v>-225.1596574007034</v>
       </c>
     </row>
     <row r="6">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.5710344038777031</v>
+        <v>-0.5710394868419331</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5722401142120361</v>
+        <v>-0.5695803761482239</v>
       </c>
       <c r="F6" t="n">
         <v>-225.1779703</v>
@@ -627,7 +627,7 @@
         <v>-224.60693086</v>
       </c>
       <c r="H6" t="n">
-        <v>-225.179170974212</v>
+        <v>-225.1765112361482</v>
       </c>
     </row>
     <row r="7">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.6122240538189093</v>
+        <v>-0.6122157322350953</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6108181476593018</v>
+        <v>-0.6110981106758118</v>
       </c>
       <c r="F7" t="n">
         <v>-225.15491327</v>
@@ -659,7 +659,7 @@
         <v>-224.54269476</v>
       </c>
       <c r="H7" t="n">
-        <v>-225.1535129076593</v>
+        <v>-225.1537928706758</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>-0.5715870074754034</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.570398211479187</v>
+        <v>-0.5726191997528076</v>
       </c>
       <c r="F8" t="n">
         <v>-225.16910585</v>
@@ -691,7 +691,7 @@
         <v>-224.59751859</v>
       </c>
       <c r="H8" t="n">
-        <v>-225.1679168014792</v>
+        <v>-225.1701377897528</v>
       </c>
     </row>
     <row r="9">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.5735409357417804</v>
+        <v>-0.5735418751654208</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5735964775085449</v>
+        <v>-0.5732531547546387</v>
       </c>
       <c r="F9" t="n">
         <v>-225.14390949</v>
@@ -723,7 +723,7 @@
         <v>-224.57036624</v>
       </c>
       <c r="H9" t="n">
-        <v>-225.1439627175085</v>
+        <v>-225.1436193947546</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.5699155834229879</v>
+        <v>-0.5699121168907877</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5739009380340576</v>
+        <v>-0.5732454061508179</v>
       </c>
       <c r="F10" t="n">
         <v>-225.20078384</v>
@@ -755,7 +755,7 @@
         <v>-224.63087186</v>
       </c>
       <c r="H10" t="n">
-        <v>-225.2047727980341</v>
+        <v>-225.2041172661508</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +778,7 @@
         <v>-0.5703494623688888</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5742498636245728</v>
+        <v>-0.5698877573013306</v>
       </c>
       <c r="F11" t="n">
         <v>-225.2098853</v>
@@ -787,7 +787,7 @@
         <v>-224.63953823</v>
       </c>
       <c r="H11" t="n">
-        <v>-225.2137880936246</v>
+        <v>-225.2094259873013</v>
       </c>
     </row>
     <row r="12">
@@ -810,7 +810,7 @@
         <v>-0.5744787584706563</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5732150077819824</v>
+        <v>-0.5751832127571106</v>
       </c>
       <c r="F12" t="n">
         <v>-225.2235792</v>
@@ -819,7 +819,7 @@
         <v>-224.64910333</v>
       </c>
       <c r="H12" t="n">
-        <v>-225.222318337782</v>
+        <v>-225.2242865427571</v>
       </c>
     </row>
     <row r="13">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.5729131585352891</v>
+        <v>-0.5729111570893592</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5719702243804932</v>
+        <v>-0.5731744766235352</v>
       </c>
       <c r="F13" t="n">
         <v>-225.22005571</v>
@@ -851,7 +851,7 @@
         <v>-224.64714128</v>
       </c>
       <c r="H13" t="n">
-        <v>-225.2191115043805</v>
+        <v>-225.2203157566235</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +874,7 @@
         <v>-0.5737860654806543</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5785162448883057</v>
+        <v>-0.5759475231170654</v>
       </c>
       <c r="F14" t="n">
         <v>-225.22228359</v>
@@ -883,7 +883,7 @@
         <v>-224.64849613</v>
       </c>
       <c r="H14" t="n">
-        <v>-225.2270123748883</v>
+        <v>-225.2244436531171</v>
       </c>
     </row>
     <row r="15">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.576281269662527</v>
+        <v>-0.5762879540237973</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5784151554107666</v>
+        <v>-0.5828847885131836</v>
       </c>
       <c r="F15" t="n">
         <v>-225.11918185</v>
@@ -915,7 +915,7 @@
         <v>-224.54289349</v>
       </c>
       <c r="H15" t="n">
-        <v>-225.1213086454108</v>
+        <v>-225.1257782785132</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-0.5701521808354786</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5679535269737244</v>
+        <v>-0.5685355663299561</v>
       </c>
       <c r="F16" t="n">
         <v>-225.20892405</v>
@@ -947,7 +947,7 @@
         <v>-224.63876823</v>
       </c>
       <c r="H16" t="n">
-        <v>-225.2067217569737</v>
+        <v>-225.20730379633</v>
       </c>
     </row>
     <row r="17">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.5732723006120497</v>
+        <v>-0.5732668997719599</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5714942216873169</v>
+        <v>-0.5752954483032227</v>
       </c>
       <c r="F17" t="n">
         <v>-225.22103032</v>
@@ -979,7 +979,7 @@
         <v>-224.6477647</v>
       </c>
       <c r="H17" t="n">
-        <v>-225.2192589216873</v>
+        <v>-225.2230601483032</v>
       </c>
     </row>
     <row r="18">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.604474644871021</v>
+        <v>-0.6044762619047506</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6048771142959595</v>
+        <v>-0.6047554016113281</v>
       </c>
       <c r="F18" t="n">
         <v>-225.15155721</v>
@@ -1011,7 +1011,7 @@
         <v>-224.54707928</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.151956394296</v>
+        <v>-225.1518346816113</v>
       </c>
     </row>
     <row r="19">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.605185103668899</v>
+        <v>-0.6051862327254006</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6024659872055054</v>
+        <v>-0.6046690344810486</v>
       </c>
       <c r="F19" t="n">
         <v>-225.15186078</v>
@@ -1043,7 +1043,7 @@
         <v>-224.54667446</v>
       </c>
       <c r="H19" t="n">
-        <v>-225.1491404472055</v>
+        <v>-225.151343494481</v>
       </c>
     </row>
     <row r="20">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.5697321523699197</v>
+        <v>-0.5697242229089197</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5714133381843567</v>
+        <v>-0.5723456740379333</v>
       </c>
       <c r="F20" t="n">
         <v>-225.20558667</v>
@@ -1075,7 +1075,7 @@
         <v>-224.63586044</v>
       </c>
       <c r="H20" t="n">
-        <v>-225.2072737781843</v>
+        <v>-225.2082061140379</v>
       </c>
     </row>
     <row r="21">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.6023667546193492</v>
+        <v>-0.6023644353471276</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5987922549247742</v>
+        <v>-0.5982687473297119</v>
       </c>
       <c r="F21" t="n">
         <v>-225.15066251</v>
@@ -1107,7 +1107,7 @@
         <v>-224.54829896</v>
       </c>
       <c r="H21" t="n">
-        <v>-225.1470912149248</v>
+        <v>-225.1465677073297</v>
       </c>
     </row>
     <row r="22">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5736967881693666</v>
+        <v>-0.5736957010600274</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5745076537132263</v>
+        <v>-0.5756381750106812</v>
       </c>
       <c r="F22" t="n">
         <v>-225.14227809</v>
@@ -1139,7 +1139,7 @@
         <v>-224.56858375</v>
       </c>
       <c r="H22" t="n">
-        <v>-225.1430914037132</v>
+        <v>-225.1442219250107</v>
       </c>
     </row>
     <row r="23">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.5712044176892863</v>
+        <v>-0.5712130685560088</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5662482976913452</v>
+        <v>-0.5702860951423645</v>
       </c>
       <c r="F23" t="n">
         <v>-225.17505779</v>
@@ -1171,7 +1171,7 @@
         <v>-224.60384545</v>
       </c>
       <c r="H23" t="n">
-        <v>-225.1700937476913</v>
+        <v>-225.1741315451424</v>
       </c>
     </row>
     <row r="24">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.5707248309038095</v>
+        <v>-0.5707231895471796</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5730537176132202</v>
+        <v>-0.5702353715896606</v>
       </c>
       <c r="F24" t="n">
         <v>-225.1836611</v>
@@ -1203,7 +1203,7 @@
         <v>-224.61294031</v>
       </c>
       <c r="H24" t="n">
-        <v>-225.1859940276132</v>
+        <v>-225.1831756815897</v>
       </c>
     </row>
     <row r="25">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.570184103220291</v>
+        <v>-0.5701865895568909</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5729244947433472</v>
+        <v>-0.5703656673431396</v>
       </c>
       <c r="F25" t="n">
         <v>-225.19446127</v>
@@ -1235,7 +1235,7 @@
         <v>-224.62427669</v>
       </c>
       <c r="H25" t="n">
-        <v>-225.1972011847433</v>
+        <v>-225.1946423573431</v>
       </c>
     </row>
     <row r="26">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.5718291499996921</v>
+        <v>-0.5718384683188923</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5714556574821472</v>
+        <v>-0.5682098269462585</v>
       </c>
       <c r="F26" t="n">
         <v>-225.21643284</v>
@@ -1267,7 +1267,7 @@
         <v>-224.64459315</v>
       </c>
       <c r="H26" t="n">
-        <v>-225.2160488074821</v>
+        <v>-225.2128029769463</v>
       </c>
     </row>
     <row r="27">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.5740123333367471</v>
+        <v>-0.574007150773048</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5757770538330078</v>
+        <v>-0.57549649477005</v>
       </c>
       <c r="F27" t="n">
         <v>-225.13900257</v>
@@ -1299,7 +1299,7 @@
         <v>-224.5649943</v>
       </c>
       <c r="H27" t="n">
-        <v>-225.140771353833</v>
+        <v>-225.14049079477</v>
       </c>
     </row>
     <row r="28">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.6069783728986079</v>
+        <v>-0.6069803921387871</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6042312979698181</v>
+        <v>-0.6059149503707886</v>
       </c>
       <c r="F28" t="n">
         <v>-225.15263856</v>
@@ -1331,7 +1331,7 @@
         <v>-224.54565581</v>
       </c>
       <c r="H28" t="n">
-        <v>-225.1498871079698</v>
+        <v>-225.1515707603708</v>
       </c>
     </row>
     <row r="29">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.6073469369942534</v>
+        <v>-0.6073481865312164</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6039345264434814</v>
+        <v>-0.6021029353141785</v>
       </c>
       <c r="F29" t="n">
         <v>-225.15279864</v>
@@ -1363,7 +1363,7 @@
         <v>-224.54544939</v>
       </c>
       <c r="H29" t="n">
-        <v>-225.1493839164435</v>
+        <v>-225.1475523253142</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.6077182255653348</v>
+        <v>-0.6077186382705579</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6078140735626221</v>
+        <v>-0.6043957471847534</v>
       </c>
       <c r="F30" t="n">
         <v>-225.15296075</v>
@@ -1395,7 +1395,7 @@
         <v>-224.54524121</v>
       </c>
       <c r="H30" t="n">
-        <v>-225.1530552835626</v>
+        <v>-225.1496369571848</v>
       </c>
     </row>
     <row r="31">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.6080938242331315</v>
+        <v>-0.6080934176856838</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.6105695962905884</v>
+        <v>-0.6059113740921021</v>
       </c>
       <c r="F31" t="n">
         <v>-225.15312511</v>
@@ -1427,7 +1427,7 @@
         <v>-224.54503068</v>
       </c>
       <c r="H31" t="n">
-        <v>-225.1556002762906</v>
+        <v>-225.1509420540921</v>
       </c>
     </row>
     <row r="32">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.6117670176264709</v>
+        <v>-0.6117592953364577</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6176832914352417</v>
+        <v>-0.6158112287521362</v>
       </c>
       <c r="F32" t="n">
         <v>-225.15472017</v>
@@ -1459,7 +1459,7 @@
         <v>-224.54296013</v>
       </c>
       <c r="H32" t="n">
-        <v>-225.1606434214353</v>
+        <v>-225.1587713587521</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1482,7 @@
         <v>-0.5717882429631447</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5719879865646362</v>
+        <v>-0.5717865824699402</v>
       </c>
       <c r="F33" t="n">
         <v>-225.16607067</v>
@@ -1491,7 +1491,7 @@
         <v>-224.59428064</v>
       </c>
       <c r="H33" t="n">
-        <v>-225.1662686265646</v>
+        <v>-225.1660672224699</v>
       </c>
     </row>
     <row r="34">
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.6062528593666113</v>
+        <v>-0.6062563871896278</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.6077526807785034</v>
+        <v>-0.6062682867050171</v>
       </c>
       <c r="F34" t="n">
         <v>-225.15232321</v>
@@ -1523,7 +1523,7 @@
         <v>-224.54606538</v>
       </c>
       <c r="H34" t="n">
-        <v>-225.1538180607785</v>
+        <v>-225.152333666705</v>
       </c>
     </row>
     <row r="35">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.5725588681037165</v>
+        <v>-0.5725604181121569</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5727397203445435</v>
+        <v>-0.5738123655319214</v>
       </c>
       <c r="F35" t="n">
         <v>-225.2189662</v>
@@ -1555,7 +1555,7 @@
         <v>-224.64640612</v>
       </c>
       <c r="H35" t="n">
-        <v>-225.2191458403445</v>
+        <v>-225.2202184855319</v>
       </c>
     </row>
     <row r="36">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.5730954369188621</v>
+        <v>-0.5730917360816121</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5707738995552063</v>
+        <v>-0.5728232860565186</v>
       </c>
       <c r="F36" t="n">
         <v>-225.22055719</v>
@@ -1587,7 +1587,7 @@
         <v>-224.64746703</v>
       </c>
       <c r="H36" t="n">
-        <v>-225.2182409295552</v>
+        <v>-225.2202903160565</v>
       </c>
     </row>
     <row r="37">
@@ -1610,7 +1610,7 @@
         <v>-0.5746462919990711</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5774476528167725</v>
+        <v>-0.569220244884491</v>
       </c>
       <c r="F37" t="n">
         <v>-225.22383828</v>
@@ -1619,7 +1619,7 @@
         <v>-224.64919121</v>
       </c>
       <c r="H37" t="n">
-        <v>-225.2266388628168</v>
+        <v>-225.2184114548845</v>
       </c>
     </row>
     <row r="38">
@@ -1642,7 +1642,7 @@
         <v>-0.5694979320117856</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5666595101356506</v>
+        <v>-0.5705281496047974</v>
       </c>
       <c r="F38" t="n">
         <v>-225.21233885</v>
@@ -1651,7 +1651,7 @@
         <v>-224.64284039</v>
       </c>
       <c r="H38" t="n">
-        <v>-225.2094999001357</v>
+        <v>-225.2133685396048</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
         <v>-0.5694678538621445</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5687121748924255</v>
+        <v>-0.5690599679946899</v>
       </c>
       <c r="F39" t="n">
         <v>-225.21340917</v>
@@ -1683,7 +1683,7 @@
         <v>-224.64394293</v>
       </c>
       <c r="H39" t="n">
-        <v>-225.2126551048924</v>
+        <v>-225.2130028979947</v>
       </c>
     </row>
     <row r="40">
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.5995091668407255</v>
+        <v>-0.5995099742146655</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.5996940135955811</v>
+        <v>-0.6025428771972656</v>
       </c>
       <c r="F40" t="n">
         <v>-225.14947303</v>
@@ -1715,7 +1715,7 @@
         <v>-224.54996334</v>
       </c>
       <c r="H40" t="n">
-        <v>-225.1496573535956</v>
+        <v>-225.1525062171973</v>
       </c>
     </row>
     <row r="41">
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-0.5720150242250741</v>
+        <v>-0.5720223319340143</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5706053972244263</v>
+        <v>-0.5688447952270508</v>
       </c>
       <c r="F41" t="n">
         <v>-225.21711121</v>
@@ -1747,7 +1747,7 @@
         <v>-224.64509024</v>
       </c>
       <c r="H41" t="n">
-        <v>-225.2156956372244</v>
+        <v>-225.2139350352271</v>
       </c>
     </row>
     <row r="42">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.6137004040616378</v>
+        <v>-0.6137031125343466</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.6026253700256348</v>
+        <v>-0.607691764831543</v>
       </c>
       <c r="F42" t="n">
         <v>-225.15551594</v>
@@ -1779,7 +1779,7 @@
         <v>-224.54181912</v>
       </c>
       <c r="H42" t="n">
-        <v>-225.1444444900256</v>
+        <v>-225.1495108848316</v>
       </c>
     </row>
     <row r="43">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.570302194016673</v>
+        <v>-0.5703072755718729</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5730502009391785</v>
+        <v>-0.5717028379440308</v>
       </c>
       <c r="F43" t="n">
         <v>-225.19183774</v>
@@ -1811,7 +1811,7 @@
         <v>-224.62153105</v>
       </c>
       <c r="H43" t="n">
-        <v>-225.1945812509392</v>
+        <v>-225.193233887944</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>-0.5716586770979002</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5724354386329651</v>
+        <v>-0.5673954486846924</v>
       </c>
       <c r="F44" t="n">
         <v>-225.21572392</v>
@@ -1843,7 +1843,7 @@
         <v>-224.64406715</v>
       </c>
       <c r="H44" t="n">
-        <v>-225.216502588633</v>
+        <v>-225.2114625986847</v>
       </c>
     </row>
     <row r="45">
@@ -1866,7 +1866,7 @@
         <v>-0.5741322732021592</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5754621028900146</v>
+        <v>-0.5753357410430908</v>
       </c>
       <c r="F45" t="n">
         <v>-225.22298384</v>
@@ -1875,7 +1875,7 @@
         <v>-224.64885131</v>
       </c>
       <c r="H45" t="n">
-        <v>-225.22431341289</v>
+        <v>-225.2241870510431</v>
       </c>
     </row>
     <row r="46">
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.6020111773794516</v>
+        <v>-0.602009184853148</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.5987951755523682</v>
+        <v>-0.6009773015975952</v>
       </c>
       <c r="F46" t="n">
         <v>-225.15051444</v>
@@ -1907,7 +1907,7 @@
         <v>-224.54850414</v>
       </c>
       <c r="H46" t="n">
-        <v>-225.1472993155524</v>
+        <v>-225.1494814415976</v>
       </c>
     </row>
     <row r="47">
@@ -1930,7 +1930,7 @@
         <v>-0.5760680937302514</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5735034942626953</v>
+        <v>-0.5800508260726929</v>
       </c>
       <c r="F47" t="n">
         <v>-225.12083175</v>
@@ -1939,7 +1939,7 @@
         <v>-224.54476329</v>
       </c>
       <c r="H47" t="n">
-        <v>-225.1182667842627</v>
+        <v>-225.1248141160727</v>
       </c>
     </row>
     <row r="48">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.5734473075030514</v>
+        <v>-0.5734403071598115</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.5742460489273071</v>
+        <v>-0.57724928855896</v>
       </c>
       <c r="F48" t="n">
         <v>-225.22147561</v>
@@ -1971,7 +1971,7 @@
         <v>-224.64803543</v>
       </c>
       <c r="H48" t="n">
-        <v>-225.2222814789273</v>
+        <v>-225.225284718559</v>
       </c>
     </row>
     <row r="49">
@@ -1994,7 +1994,7 @@
         <v>-0.5739597165988792</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5777137279510498</v>
+        <v>-0.5783168077468872</v>
       </c>
       <c r="F49" t="n">
         <v>-225.22264704</v>
@@ -2003,7 +2003,7 @@
         <v>-224.64868683</v>
       </c>
       <c r="H49" t="n">
-        <v>-225.2264005579511</v>
+        <v>-225.2270036377469</v>
       </c>
     </row>
     <row r="50">
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.6027187316188254</v>
+        <v>-0.6027161047764253</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5998444557189941</v>
+        <v>-0.5995843410491943</v>
       </c>
       <c r="F50" t="n">
         <v>-225.15081104</v>
@@ -2035,7 +2035,7 @@
         <v>-224.54809459</v>
       </c>
       <c r="H50" t="n">
-        <v>-225.147939045719</v>
+        <v>-225.1476789310492</v>
       </c>
     </row>
     <row r="51">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.600584548774278</v>
+        <v>-0.600587899241156</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5989625453948975</v>
+        <v>-0.6000728011131287</v>
       </c>
       <c r="F51" t="n">
         <v>-225.14992097</v>
@@ -2067,7 +2067,7 @@
         <v>-224.54933255</v>
       </c>
       <c r="H51" t="n">
-        <v>-225.1482950953949</v>
+        <v>-225.1494053511131</v>
       </c>
     </row>
     <row r="52">
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.5700193123802995</v>
+        <v>-0.5700181423672994</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5730817914009094</v>
+        <v>-0.5739640593528748</v>
       </c>
       <c r="F52" t="n">
         <v>-225.19829638</v>
@@ -2099,7 +2099,7 @@
         <v>-224.62828089</v>
       </c>
       <c r="H52" t="n">
-        <v>-225.2013626814009</v>
+        <v>-225.2022449493529</v>
       </c>
     </row>
     <row r="53">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.6030747609919327</v>
+        <v>-0.6030718311446317</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.6017956733703613</v>
+        <v>-0.6028513312339783</v>
       </c>
       <c r="F53" t="n">
         <v>-225.15095946</v>
@@ -2131,7 +2131,7 @@
         <v>-224.54789071</v>
       </c>
       <c r="H53" t="n">
-        <v>-225.1496863833704</v>
+        <v>-225.150742041234</v>
       </c>
     </row>
     <row r="54">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.6048389053500858</v>
+        <v>-0.6048353042071709</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.6041569709777832</v>
+        <v>-0.6070753335952759</v>
       </c>
       <c r="F54" t="n">
         <v>-225.15170884</v>
@@ -2163,7 +2163,7 @@
         <v>-224.54687667</v>
       </c>
       <c r="H54" t="n">
-        <v>-225.1510336409778</v>
+        <v>-225.1539520035953</v>
       </c>
     </row>
     <row r="55">
@@ -2186,7 +2186,7 @@
         <v>-0.5699629376079556</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5733339190483093</v>
+        <v>-0.5762384533882141</v>
       </c>
       <c r="F55" t="n">
         <v>-225.2079299</v>
@@ -2195,7 +2195,7 @@
         <v>-224.63796682</v>
       </c>
       <c r="H55" t="n">
-        <v>-225.2113007390483</v>
+        <v>-225.2142052733882</v>
       </c>
     </row>
     <row r="56">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.6182891497837555</v>
+        <v>-0.6182970009435351</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6125444173812866</v>
+        <v>-0.6125924587249756</v>
       </c>
       <c r="F56" t="n">
         <v>-225.15713969</v>
@@ -2227,7 +2227,7 @@
         <v>-224.53883864</v>
       </c>
       <c r="H56" t="n">
-        <v>-225.1513830573813</v>
+        <v>-225.151431098725</v>
       </c>
     </row>
     <row r="57">
@@ -2250,7 +2250,7 @@
         <v>-0.571289132637905</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5689271688461304</v>
+        <v>-0.5674417018890381</v>
       </c>
       <c r="F57" t="n">
         <v>-225.2142136</v>
@@ -2259,7 +2259,7 @@
         <v>-224.64292486</v>
       </c>
       <c r="H57" t="n">
-        <v>-225.2118520288461</v>
+        <v>-225.210366561889</v>
       </c>
     </row>
     <row r="58">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.5727383753752113</v>
+        <v>-0.5727381217231815</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5713770985603333</v>
+        <v>-0.5754754543304443</v>
       </c>
       <c r="F58" t="n">
         <v>-225.21952541</v>
@@ -2291,7 +2291,7 @@
         <v>-224.64678773</v>
       </c>
       <c r="H58" t="n">
-        <v>-225.2181648285603</v>
+        <v>-225.2222631843304</v>
       </c>
     </row>
     <row r="59">
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.5707972672726138</v>
+        <v>-0.5707972657684939</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5720399618148804</v>
+        <v>-0.5716897249221802</v>
       </c>
       <c r="F59" t="n">
         <v>-225.18225579</v>
@@ -2323,7 +2323,7 @@
         <v>-224.61145869</v>
       </c>
       <c r="H59" t="n">
-        <v>-225.1834986518149</v>
+        <v>-225.1831484149222</v>
       </c>
     </row>
     <row r="60">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.5721970359290256</v>
+        <v>-0.5722023602066256</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5682375431060791</v>
+        <v>-0.5727015733718872</v>
       </c>
       <c r="F60" t="n">
         <v>-225.21775955</v>
@@ -2355,7 +2355,7 @@
         <v>-224.64555785</v>
       </c>
       <c r="H60" t="n">
-        <v>-225.2137953931061</v>
+        <v>-225.2182594233719</v>
       </c>
     </row>
     <row r="61">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.5987797696600896</v>
+        <v>-0.5987815325972863</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5974881649017334</v>
+        <v>-0.5977667570114136</v>
       </c>
       <c r="F61" t="n">
         <v>-225.14917195</v>
@@ -2387,7 +2387,7 @@
         <v>-224.55038895</v>
       </c>
       <c r="H61" t="n">
-        <v>-225.1478771149017</v>
+        <v>-225.1481557070114</v>
       </c>
     </row>
     <row r="62">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-0.5705795843256551</v>
+        <v>-0.5705747913793853</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5699217319488525</v>
+        <v>-0.568896472454071</v>
       </c>
       <c r="F62" t="n">
         <v>-225.18643605</v>
@@ -2419,7 +2419,7 @@
         <v>-224.61586148</v>
       </c>
       <c r="H62" t="n">
-        <v>-225.1857832119489</v>
+        <v>-225.1847579524541</v>
       </c>
     </row>
     <row r="63">
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.6113194365245631</v>
+        <v>-0.6113123911540623</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6108423471450806</v>
+        <v>-0.6118901968002319</v>
       </c>
       <c r="F63" t="n">
         <v>-225.15452988</v>
@@ -2451,7 +2451,7 @@
         <v>-224.54321715</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.1540594971451</v>
+        <v>-225.1551073468002</v>
       </c>
     </row>
     <row r="64">
@@ -2474,7 +2474,7 @@
         <v>-0.5693785978160539</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.57115638256073</v>
+        <v>-0.5668544173240662</v>
       </c>
       <c r="F64" t="n">
         <v>-225.21652138</v>
@@ -2483,7 +2483,7 @@
         <v>-224.64714178</v>
       </c>
       <c r="H64" t="n">
-        <v>-225.2182981625607</v>
+        <v>-225.2139961973241</v>
       </c>
     </row>
     <row r="65">
@@ -2506,7 +2506,7 @@
         <v>-0.5727141876153088</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5692323446273804</v>
+        <v>-0.5691425204277039</v>
       </c>
       <c r="F65" t="n">
         <v>-225.15357967</v>
@@ -2515,7 +2515,7 @@
         <v>-224.58086525</v>
       </c>
       <c r="H65" t="n">
-        <v>-225.1500975946274</v>
+        <v>-225.1500077704277</v>
       </c>
     </row>
     <row r="66">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.5741781220731871</v>
+        <v>-0.574170889200288</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5732289552688599</v>
+        <v>-0.5748540163040161</v>
       </c>
       <c r="F66" t="n">
         <v>-225.13735916</v>
@@ -2547,7 +2547,7 @@
         <v>-224.56318747</v>
       </c>
       <c r="H66" t="n">
-        <v>-225.1364164252689</v>
+        <v>-225.138041486304</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.6153864168026193</v>
+        <v>-0.6153916607679573</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6116558313369751</v>
+        <v>-0.6083159446716309</v>
       </c>
       <c r="F67" t="n">
         <v>-225.15616167</v>
@@ -2579,7 +2579,7 @@
         <v>-224.54076713</v>
       </c>
       <c r="H67" t="n">
-        <v>-225.152422961337</v>
+        <v>-225.1490830746716</v>
       </c>
     </row>
     <row r="68">
@@ -2602,7 +2602,7 @@
         <v>-0.5723464352869472</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5699785947799683</v>
+        <v>-0.5704370737075806</v>
       </c>
       <c r="F68" t="n">
         <v>-225.15832493</v>
@@ -2611,7 +2611,7 @@
         <v>-224.5859796</v>
       </c>
       <c r="H68" t="n">
-        <v>-225.15595819478</v>
+        <v>-225.1564166737076</v>
       </c>
     </row>
     <row r="69">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-0.6167146034724207</v>
+        <v>-0.6167213750757807</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6288120746612549</v>
+        <v>-0.6203519105911255</v>
       </c>
       <c r="F69" t="n">
         <v>-225.15662651</v>
@@ -2643,7 +2643,7 @@
         <v>-224.53990926</v>
       </c>
       <c r="H69" t="n">
-        <v>-225.1687213346613</v>
+        <v>-225.1602611705911</v>
       </c>
     </row>
     <row r="70">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-0.5696362799811829</v>
+        <v>-0.5696456858366026</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5682543516159058</v>
+        <v>-0.5698187351226807</v>
       </c>
       <c r="F70" t="n">
         <v>-225.20789917</v>
@@ -2675,7 +2675,7 @@
         <v>-224.63825557</v>
       </c>
       <c r="H70" t="n">
-        <v>-225.2065099216159</v>
+        <v>-225.2080743051227</v>
       </c>
     </row>
     <row r="71">
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-0.5706486860957666</v>
+        <v>-0.5706454174431665</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5739591121673584</v>
+        <v>-0.5707623958587646</v>
       </c>
       <c r="F71" t="n">
         <v>-225.18505452</v>
@@ -2707,7 +2707,7 @@
         <v>-224.61440786</v>
       </c>
       <c r="H71" t="n">
-        <v>-225.1883669721674</v>
+        <v>-225.1851702558588</v>
       </c>
     </row>
     <row r="72">
@@ -2730,7 +2730,7 @@
         <v>-0.5694341847206625</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.5688439607620239</v>
+        <v>-0.5697002410888672</v>
       </c>
       <c r="F72" t="n">
         <v>-225.21446314</v>
@@ -2739,7 +2739,7 @@
         <v>-224.64502749</v>
       </c>
       <c r="H72" t="n">
-        <v>-225.213871450762</v>
+        <v>-225.2147277310889</v>
       </c>
     </row>
     <row r="73">
@@ -2762,7 +2762,7 @@
         <v>-0.5714878036746867</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5712277293205261</v>
+        <v>-0.5723680853843689</v>
       </c>
       <c r="F73" t="n">
         <v>-225.17060927</v>
@@ -2771,7 +2771,7 @@
         <v>-224.59911953</v>
       </c>
       <c r="H73" t="n">
-        <v>-225.1703472593205</v>
+        <v>-225.1714876153844</v>
       </c>
     </row>
     <row r="74">
@@ -2794,7 +2794,7 @@
         <v>-0.5746895028958003</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5749050974845886</v>
+        <v>-0.5769475698471069</v>
       </c>
       <c r="F74" t="n">
         <v>-225.13241137</v>
@@ -2803,7 +2803,7 @@
         <v>-224.5577233</v>
       </c>
       <c r="H74" t="n">
-        <v>-225.1326283974846</v>
+        <v>-225.1346708698471</v>
       </c>
     </row>
     <row r="75">
@@ -2826,7 +2826,7 @@
         <v>-0.5693304828221545</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.579553484916687</v>
+        <v>-0.5685369968414307</v>
       </c>
       <c r="F75" t="n">
         <v>-225.21851198</v>
@@ -2835,7 +2835,7 @@
         <v>-224.64918242</v>
       </c>
       <c r="H75" t="n">
-        <v>-225.2287359049167</v>
+        <v>-225.2177194168414</v>
       </c>
     </row>
     <row r="76">
@@ -2855,10 +2855,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-0.5723779643153964</v>
+        <v>-0.5723813828782566</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5709948539733887</v>
+        <v>-0.5737892389297485</v>
       </c>
       <c r="F76" t="n">
         <v>-225.21837756</v>
@@ -2867,7 +2867,7 @@
         <v>-224.64599605</v>
       </c>
       <c r="H76" t="n">
-        <v>-225.2169909039734</v>
+        <v>-225.2197852889298</v>
       </c>
     </row>
     <row r="77">
@@ -2890,7 +2890,7 @@
         <v>-0.5748175177900063</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5753606557846069</v>
+        <v>-0.5719467997550964</v>
       </c>
       <c r="F77" t="n">
         <v>-225.22407217</v>
@@ -2899,7 +2899,7 @@
         <v>-224.6492542</v>
       </c>
       <c r="H77" t="n">
-        <v>-225.2246148557846</v>
+        <v>-225.2212009997551</v>
       </c>
     </row>
     <row r="78">
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.5698205771618816</v>
+        <v>-0.5698148022596347</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.576701283454895</v>
+        <v>-0.5744810104370117</v>
       </c>
       <c r="F78" t="n">
         <v>-225.20321446</v>
@@ -2931,7 +2931,7 @@
         <v>-224.63339885</v>
       </c>
       <c r="H78" t="n">
-        <v>-225.2101001334549</v>
+        <v>-225.207879860437</v>
       </c>
     </row>
     <row r="79">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.5732489262695795</v>
+        <v>-0.573253930451681</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5726951360702515</v>
+        <v>-0.5744373202323914</v>
       </c>
       <c r="F79" t="n">
         <v>-225.14715646</v>
@@ -2963,7 +2963,7 @@
         <v>-224.57390382</v>
       </c>
       <c r="H79" t="n">
-        <v>-225.1465989560702</v>
+        <v>-225.1483411402324</v>
       </c>
     </row>
     <row r="80">
@@ -2986,7 +2986,7 @@
         <v>-0.5711047836955625</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5688159465789795</v>
+        <v>-0.5671653747558594</v>
       </c>
       <c r="F80" t="n">
         <v>-225.21341154</v>
@@ -2995,7 +2995,7 @@
         <v>-224.64230892</v>
       </c>
       <c r="H80" t="n">
-        <v>-225.211124866579</v>
+        <v>-225.2094742947559</v>
       </c>
     </row>
     <row r="81">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.5736234696551312</v>
+        <v>-0.5736148755044511</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5757552981376648</v>
+        <v>-0.5743744969367981</v>
       </c>
       <c r="F81" t="n">
         <v>-225.22189339</v>
@@ -3027,7 +3027,7 @@
         <v>-224.64827932</v>
       </c>
       <c r="H81" t="n">
-        <v>-225.2240346181377</v>
+        <v>-225.2226538169368</v>
       </c>
     </row>
     <row r="82">
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.6142349632844983</v>
+        <v>-0.614238516973628</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6131744384765625</v>
+        <v>-0.6142614483833313</v>
       </c>
       <c r="F82" t="n">
         <v>-225.15572551</v>
@@ -3059,7 +3059,7 @@
         <v>-224.54149278</v>
       </c>
       <c r="H82" t="n">
-        <v>-225.1546672184766</v>
+        <v>-225.1557542283833</v>
       </c>
     </row>
     <row r="83">
@@ -3082,7 +3082,7 @@
         <v>-0.5758533042024422</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.575140118598938</v>
+        <v>-0.5798985362052917</v>
       </c>
       <c r="F83" t="n">
         <v>-225.12248361</v>
@@ -3091,7 +3091,7 @@
         <v>-224.54662902</v>
       </c>
       <c r="H83" t="n">
-        <v>-225.1217691385989</v>
+        <v>-225.1265275562053</v>
       </c>
     </row>
     <row r="84">
@@ -3114,7 +3114,7 @@
         <v>-0.5754436602898454</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5776838064193726</v>
+        <v>-0.5759642124176025</v>
       </c>
       <c r="F84" t="n">
         <v>-225.12579222</v>
@@ -3123,7 +3123,7 @@
         <v>-224.55034783</v>
       </c>
       <c r="H84" t="n">
-        <v>-225.1280316364194</v>
+        <v>-225.1263120424176</v>
       </c>
     </row>
     <row r="85">
@@ -3146,7 +3146,7 @@
         <v>-0.5695348543798451</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.568215012550354</v>
+        <v>-0.5687338709831238</v>
       </c>
       <c r="F85" t="n">
         <v>-225.21125261</v>
@@ -3155,7 +3155,7 @@
         <v>-224.64172038</v>
       </c>
       <c r="H85" t="n">
-        <v>-225.2099353925504</v>
+        <v>-225.2104542509831</v>
       </c>
     </row>
     <row r="86">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.6096505694901955</v>
+        <v>-0.6096466975472871</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.6103302240371704</v>
+        <v>-0.6084607839584351</v>
       </c>
       <c r="F86" t="n">
         <v>-225.15380487</v>
@@ -3187,7 +3187,7 @@
         <v>-224.54416183</v>
       </c>
       <c r="H86" t="n">
-        <v>-225.1544920540372</v>
+        <v>-225.1526226139584</v>
       </c>
     </row>
     <row r="87">
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.5698674985608208</v>
+        <v>-0.5698628694687208</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5709323287010193</v>
+        <v>-0.5723467469215393</v>
       </c>
       <c r="F87" t="n">
         <v>-225.20200627</v>
@@ -3219,7 +3219,7 @@
         <v>-224.63214336</v>
       </c>
       <c r="H87" t="n">
-        <v>-225.203075688701</v>
+        <v>-225.2044901069215</v>
       </c>
     </row>
     <row r="88">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.5700707350957832</v>
+        <v>-0.5700707730819833</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.5723267793655396</v>
+        <v>-0.5713744163513184</v>
       </c>
       <c r="F88" t="n">
         <v>-225.19703181</v>
@@ -3251,7 +3251,7 @@
         <v>-224.62696185</v>
       </c>
       <c r="H88" t="n">
-        <v>-225.1992886293655</v>
+        <v>-225.1983362663513</v>
       </c>
     </row>
     <row r="89">
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.6104603420840984</v>
+        <v>-0.6104598799429023</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.6120540499687195</v>
+        <v>-0.6127604246139526</v>
       </c>
       <c r="F89" t="n">
         <v>-225.15416102</v>
@@ -3283,7 +3283,7 @@
         <v>-224.54370228</v>
       </c>
       <c r="H89" t="n">
-        <v>-225.1557563299687</v>
+        <v>-225.1564627046139</v>
       </c>
     </row>
     <row r="90">
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.6066157074938454</v>
+        <v>-0.6066184946836062</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.6064627170562744</v>
+        <v>-0.6066566109657288</v>
       </c>
       <c r="F90" t="n">
         <v>-225.15248016</v>
@@ -3315,7 +3315,7 @@
         <v>-224.5458611</v>
       </c>
       <c r="H90" t="n">
-        <v>-225.1523238170563</v>
+        <v>-225.1525177109657</v>
       </c>
     </row>
     <row r="91">
@@ -3338,7 +3338,7 @@
         <v>-0.5752480166933038</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5766896605491638</v>
+        <v>-0.5775679349899292</v>
       </c>
       <c r="F91" t="n">
         <v>-225.12744774</v>
@@ -3347,7 +3347,7 @@
         <v>-224.55220009</v>
       </c>
       <c r="H91" t="n">
-        <v>-225.1288897505492</v>
+        <v>-225.1297680249899</v>
       </c>
     </row>
     <row r="92">
@@ -3370,7 +3370,7 @@
         <v>-0.5756482775282076</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.5778058767318726</v>
+        <v>-0.5789811611175537</v>
       </c>
       <c r="F92" t="n">
         <v>-225.12413732</v>
@@ -3379,7 +3379,7 @@
         <v>-224.54849067</v>
       </c>
       <c r="H92" t="n">
-        <v>-225.1262965467319</v>
+        <v>-225.1274718311176</v>
       </c>
     </row>
     <row r="93">
@@ -3402,7 +3402,7 @@
         <v>-0.5714727440454934</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.5694988965988159</v>
+        <v>-0.5671508312225342</v>
       </c>
       <c r="F93" t="n">
         <v>-225.21498436</v>
@@ -3411,7 +3411,7 @@
         <v>-224.64351124</v>
       </c>
       <c r="H93" t="n">
-        <v>-225.2130101365988</v>
+        <v>-225.2106620712225</v>
       </c>
     </row>
     <row r="94">
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-0.6016603678264356</v>
+        <v>-0.6016587090415922</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.595461368560791</v>
+        <v>-0.5993094444274902</v>
       </c>
       <c r="F94" t="n">
         <v>-225.15036633</v>
@@ -3443,7 +3443,7 @@
         <v>-224.54871003</v>
       </c>
       <c r="H94" t="n">
-        <v>-225.1441713985608</v>
+        <v>-225.1480194744275</v>
       </c>
     </row>
     <row r="95">
@@ -3466,7 +3466,7 @@
         <v>-0.5705391445745658</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.5704494714736938</v>
+        <v>-0.5688235759735107</v>
       </c>
       <c r="F95" t="n">
         <v>-225.21081521</v>
@@ -3475,7 +3475,7 @@
         <v>-224.64027715</v>
       </c>
       <c r="H95" t="n">
-        <v>-225.2107266214737</v>
+        <v>-225.2091007259735</v>
       </c>
     </row>
     <row r="96">
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.5702415413769272</v>
+        <v>-0.5702453753506271</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.572509765625</v>
+        <v>-0.572705864906311</v>
       </c>
       <c r="F96" t="n">
         <v>-225.19315609</v>
@@ -3507,7 +3507,7 @@
         <v>-224.62291141</v>
       </c>
       <c r="H96" t="n">
-        <v>-225.195421175625</v>
+        <v>-225.1956172749063</v>
       </c>
     </row>
     <row r="97">
@@ -3527,10 +3527,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.6131819267298106</v>
+        <v>-0.6131837719893145</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.6139310598373413</v>
+        <v>-0.6139459609985352</v>
       </c>
       <c r="F97" t="n">
         <v>-225.15531095</v>
@@ -3539,7 +3539,7 @@
         <v>-224.5421262</v>
       </c>
       <c r="H97" t="n">
-        <v>-225.1560572598374</v>
+        <v>-225.1560721609985</v>
       </c>
     </row>
     <row r="98">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-0.6037784302042102</v>
+        <v>-0.603774980312507</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.5994269847869873</v>
+        <v>-0.600172758102417</v>
       </c>
       <c r="F98" t="n">
         <v>-225.15125737</v>
@@ -3571,7 +3571,7 @@
         <v>-224.54748425</v>
       </c>
       <c r="H98" t="n">
-        <v>-225.146911234787</v>
+        <v>-225.1476570081024</v>
       </c>
     </row>
     <row r="99">
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.597666759920453</v>
+        <v>-0.5976799657871974</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.6121123433113098</v>
+        <v>-0.6036750078201294</v>
       </c>
       <c r="F99" t="n">
         <v>-225.1487145</v>
@@ -3603,7 +3603,7 @@
         <v>-224.55103545</v>
       </c>
       <c r="H99" t="n">
-        <v>-225.1631477933113</v>
+        <v>-225.1547104578201</v>
       </c>
     </row>
     <row r="100">
@@ -3626,7 +3626,7 @@
         <v>-0.5713000434703812</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5690757036209106</v>
+        <v>-0.5715222954750061</v>
       </c>
       <c r="F100" t="n">
         <v>-225.17358503</v>
@@ -3635,7 +3635,7 @@
         <v>-224.60228268</v>
       </c>
       <c r="H100" t="n">
-        <v>-225.1713583836209</v>
+        <v>-225.173804975475</v>
       </c>
     </row>
     <row r="101">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-0.5984152167786591</v>
+        <v>-0.5984175238173477</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.6036913990974426</v>
+        <v>-0.5992572903633118</v>
       </c>
       <c r="F101" t="n">
         <v>-225.14901991</v>
@@ -3667,7 +3667,7 @@
         <v>-224.55060361</v>
       </c>
       <c r="H101" t="n">
-        <v>-225.1542950090974</v>
+        <v>-225.1498609003633</v>
       </c>
     </row>
     <row r="102">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6147945509830223</v>
+        <v>-0.6147989761067133</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.6169521808624268</v>
+        <v>-0.6141313314437866</v>
       </c>
       <c r="F102" t="n">
         <v>-225.15594012</v>
@@ -3699,7 +3699,7 @@
         <v>-224.54114424</v>
       </c>
       <c r="H102" t="n">
-        <v>-225.1580964208624</v>
+        <v>-225.1552755714438</v>
       </c>
     </row>
     <row r="103">
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6009522446595802</v>
+        <v>-0.600946045551721</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.6001328229904175</v>
+        <v>-0.5982578992843628</v>
       </c>
       <c r="F103" t="n">
         <v>-225.1500697</v>
@@ -3731,7 +3731,7 @@
         <v>-224.54912407</v>
       </c>
       <c r="H103" t="n">
-        <v>-225.1492568929904</v>
+        <v>-225.1473819692844</v>
       </c>
     </row>
     <row r="104">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.5703723527829152</v>
+        <v>-0.5703693185812952</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5702590346336365</v>
+        <v>-0.570502758026123</v>
       </c>
       <c r="F104" t="n">
         <v>-225.19050637</v>
@@ -3763,7 +3763,7 @@
         <v>-224.62013573</v>
       </c>
       <c r="H104" t="n">
-        <v>-225.1903947646336</v>
+        <v>-225.1906384880261</v>
       </c>
     </row>
     <row r="105">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.6058923758388336</v>
+        <v>-0.6058986995177409</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.6075535416603088</v>
+        <v>-0.6069087982177734</v>
       </c>
       <c r="F105" t="n">
         <v>-225.15216767</v>
@@ -3795,7 +3795,7 @@
         <v>-224.546269</v>
       </c>
       <c r="H105" t="n">
-        <v>-225.1538225416603</v>
+        <v>-225.1531777982178</v>
       </c>
     </row>
     <row r="106">
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-0.5705023921112742</v>
+        <v>-0.5705051138944942</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.5708524584770203</v>
+        <v>-0.5696476697921753</v>
       </c>
       <c r="F106" t="n">
         <v>-225.18780554</v>
@@ -3827,7 +3827,7 @@
         <v>-224.61730102</v>
       </c>
       <c r="H106" t="n">
-        <v>-225.188153478477</v>
+        <v>-225.1869486897922</v>
       </c>
     </row>
     <row r="107">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.6100533144136875</v>
+        <v>-0.6100450465431565</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.6132427453994751</v>
+        <v>-0.6103272438049316</v>
       </c>
       <c r="F107" t="n">
         <v>-225.15398139</v>
@@ -3859,7 +3859,7 @@
         <v>-224.54393509</v>
       </c>
       <c r="H107" t="n">
-        <v>-225.1571778353995</v>
+        <v>-225.1542623338049</v>
       </c>
     </row>
     <row r="108">
@@ -3882,7 +3882,7 @@
         <v>-0.5707284683027058</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5699650049209595</v>
+        <v>-0.5710949897766113</v>
       </c>
       <c r="F108" t="n">
         <v>-225.21171224</v>
@@ -3891,7 +3891,7 @@
         <v>-224.64098524</v>
       </c>
       <c r="H108" t="n">
-        <v>-225.210950244921</v>
+        <v>-225.2120802297766</v>
       </c>
     </row>
     <row r="109">
@@ -3914,7 +3914,7 @@
         <v>-0.5718953770342259</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.5713958740234375</v>
+        <v>-0.5731406211853027</v>
       </c>
       <c r="F109" t="n">
         <v>-225.16453933</v>
@@ -3923,7 +3923,7 @@
         <v>-224.59264381</v>
       </c>
       <c r="H109" t="n">
-        <v>-225.1640396840234</v>
+        <v>-225.1657844311853</v>
       </c>
     </row>
     <row r="110">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.6126949509913755</v>
+        <v>-0.6126860910489422</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.6106003522872925</v>
+        <v>-0.6095339059829712</v>
       </c>
       <c r="F110" t="n">
         <v>-225.15511015</v>
@@ -3955,7 +3955,7 @@
         <v>-224.54241734</v>
       </c>
       <c r="H110" t="n">
-        <v>-225.1530176922873</v>
+        <v>-225.151951245983</v>
       </c>
     </row>
     <row r="111">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-0.5991466374345238</v>
+        <v>-0.5991479218428335</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.5976498126983643</v>
+        <v>-0.6026939153671265</v>
       </c>
       <c r="F111" t="n">
         <v>-225.14932277</v>
@@ -3987,7 +3987,7 @@
         <v>-224.55017565</v>
       </c>
       <c r="H111" t="n">
-        <v>-225.1478254626984</v>
+        <v>-225.1528695653671</v>
       </c>
     </row>
     <row r="112">
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.5743476150713642</v>
+        <v>-0.5743384170212652</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.5738804936408997</v>
+        <v>-0.5737102627754211</v>
       </c>
       <c r="F112" t="n">
         <v>-225.1357127</v>
@@ -4019,7 +4019,7 @@
         <v>-224.56137339</v>
       </c>
       <c r="H112" t="n">
-        <v>-225.1352538836409</v>
+        <v>-225.1350836527754</v>
       </c>
     </row>
     <row r="113">
@@ -4042,7 +4042,7 @@
         <v>-0.5695687672589851</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5677438378334045</v>
+        <v>-0.5688595771789551</v>
       </c>
       <c r="F113" t="n">
         <v>-225.21015053</v>
@@ -4051,7 +4051,7 @@
         <v>-224.64058285</v>
       </c>
       <c r="H113" t="n">
-        <v>-225.2083266878334</v>
+        <v>-225.2094424271789</v>
       </c>
     </row>
     <row r="114">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.5696944694705136</v>
+        <v>-0.5696854307615137</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5704244375228882</v>
+        <v>-0.5734462738037109</v>
       </c>
       <c r="F114" t="n">
         <v>-225.20675067</v>
@@ -4083,7 +4083,7 @@
         <v>-224.63706661</v>
       </c>
       <c r="H114" t="n">
-        <v>-225.2074910475229</v>
+        <v>-225.2105128838037</v>
       </c>
     </row>
     <row r="115">
@@ -4106,7 +4106,7 @@
         <v>-0.5745112859426114</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.5714535713195801</v>
+        <v>-0.5763858556747437</v>
       </c>
       <c r="F115" t="n">
         <v>-225.13406289</v>
@@ -4115,7 +4115,7 @@
         <v>-224.55955159</v>
       </c>
       <c r="H115" t="n">
-        <v>-225.1310051613196</v>
+        <v>-225.1359374456748</v>
       </c>
     </row>
     <row r="116">
@@ -4138,7 +4138,7 @@
         <v>-0.5720035565788646</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5735169649124146</v>
+        <v>-0.5743582248687744</v>
       </c>
       <c r="F116" t="n">
         <v>-225.16299829</v>
@@ -4147,7 +4147,7 @@
         <v>-224.59099467</v>
       </c>
       <c r="H116" t="n">
-        <v>-225.1645116349124</v>
+        <v>-225.1653528948688</v>
       </c>
     </row>
     <row r="117">
@@ -4170,7 +4170,7 @@
         <v>-0.5748713921920644</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.5762614607810974</v>
+        <v>-0.5777266025543213</v>
       </c>
       <c r="F117" t="n">
         <v>-225.13075805</v>
@@ -4179,7 +4179,7 @@
         <v>-224.55588842</v>
       </c>
       <c r="H117" t="n">
-        <v>-225.1321498807811</v>
+        <v>-225.1336150225543</v>
       </c>
     </row>
     <row r="118">
@@ -4202,7 +4202,7 @@
         <v>-0.5696053936227126</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.567339301109314</v>
+        <v>-0.5717211961746216</v>
       </c>
       <c r="F118" t="n">
         <v>-225.20903276</v>
@@ -4211,7 +4211,7 @@
         <v>-224.63942797</v>
       </c>
       <c r="H118" t="n">
-        <v>-225.2067672711093</v>
+        <v>-225.2111491661746</v>
       </c>
     </row>
     <row r="119">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.6002295226731643</v>
+        <v>-0.6002294295903634</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.6025990843772888</v>
+        <v>-0.6020833253860474</v>
       </c>
       <c r="F119" t="n">
         <v>-225.14977208</v>
@@ -4243,7 +4243,7 @@
         <v>-224.5495417</v>
       </c>
       <c r="H119" t="n">
-        <v>-225.1521407843773</v>
+        <v>-225.151625025386</v>
       </c>
     </row>
     <row r="120">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.5711150867798935</v>
+        <v>-0.5711219737240436</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.5671377182006836</v>
+        <v>-0.5688145756721497</v>
       </c>
       <c r="F120" t="n">
         <v>-225.17651928</v>
@@ -4275,7 +4275,7 @@
         <v>-224.60539453</v>
       </c>
       <c r="H120" t="n">
-        <v>-225.1725322482007</v>
+        <v>-225.1742091056722</v>
       </c>
     </row>
     <row r="121">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.6092521922266529</v>
+        <v>-0.6092492081672025</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.608187735080719</v>
+        <v>-0.6049193143844604</v>
       </c>
       <c r="F121" t="n">
         <v>-225.1536309</v>
@@ -4307,7 +4307,7 @@
         <v>-224.54438448</v>
       </c>
       <c r="H121" t="n">
-        <v>-225.1525722150807</v>
+        <v>-225.1493037943845</v>
       </c>
     </row>
     <row r="122">
@@ -4330,7 +4330,7 @@
         <v>-0.5724647066168691</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.5691483020782471</v>
+        <v>-0.5695887804031372</v>
       </c>
       <c r="F122" t="n">
         <v>-225.15675077</v>
@@ -4339,7 +4339,7 @@
         <v>-224.58428553</v>
       </c>
       <c r="H122" t="n">
-        <v>-225.1534338320782</v>
+        <v>-225.1538743104031</v>
       </c>
     </row>
     <row r="123">
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.6108865156707913</v>
+        <v>-0.6108802096492747</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.6132043600082397</v>
+        <v>-0.6112211942672729</v>
       </c>
       <c r="F123" t="n">
         <v>-225.15434375</v>
@@ -4371,7 +4371,7 @@
         <v>-224.54346347</v>
       </c>
       <c r="H123" t="n">
-        <v>-225.1566678300082</v>
+        <v>-225.1546846642673</v>
       </c>
     </row>
     <row r="124">
@@ -4394,7 +4394,7 @@
         <v>-0.5749910171756087</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.5728263258934021</v>
+        <v>-0.5717220306396484</v>
       </c>
       <c r="F124" t="n">
         <v>-225.22428121</v>
@@ -4403,7 +4403,7 @@
         <v>-224.64929259</v>
       </c>
       <c r="H124" t="n">
-        <v>-225.2221189158934</v>
+        <v>-225.2210146206396</v>
       </c>
     </row>
     <row r="125">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.5701236187910701</v>
+        <v>-0.5701248721585801</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5724873542785645</v>
+        <v>-0.5720037221908569</v>
       </c>
       <c r="F125" t="n">
         <v>-225.19575344</v>
@@ -4435,7 +4435,7 @@
         <v>-224.62562713</v>
       </c>
       <c r="H125" t="n">
-        <v>-225.1981144842786</v>
+        <v>-225.1976308521909</v>
       </c>
     </row>
     <row r="126">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-0.569967689991334</v>
+        <v>-0.5699653385809339</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.5738348364830017</v>
+        <v>-0.573893666267395</v>
       </c>
       <c r="F126" t="n">
         <v>-225.19954717</v>
@@ -4467,7 +4467,7 @@
         <v>-224.62958433</v>
       </c>
       <c r="H126" t="n">
-        <v>-225.203419166483</v>
+        <v>-225.2034779962674</v>
       </c>
     </row>
     <row r="127">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.5709548445859174</v>
+        <v>-0.5709581541357873</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.571139931678772</v>
+        <v>-0.5692895650863647</v>
       </c>
       <c r="F127" t="n">
         <v>-225.17940998</v>
@@ -4499,7 +4499,7 @@
         <v>-224.60845364</v>
       </c>
       <c r="H127" t="n">
-        <v>-225.1795935716788</v>
+        <v>-225.1777432050864</v>
       </c>
     </row>
     <row r="128">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.61926094611956</v>
+        <v>-0.6192689904278925</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.619839608669281</v>
+        <v>-0.621711790561676</v>
       </c>
       <c r="F128" t="n">
         <v>-225.15743269</v>
@@ -4531,7 +4531,7 @@
         <v>-224.53816308</v>
       </c>
       <c r="H128" t="n">
-        <v>-225.1580026886693</v>
+        <v>-225.1598748705617</v>
       </c>
     </row>
     <row r="129">
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.6013020590197277</v>
+        <v>-0.6013007659520548</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.6010347604751587</v>
+        <v>-0.6008722186088562</v>
       </c>
       <c r="F129" t="n">
         <v>-225.15021817</v>
@@ -4563,7 +4563,7 @@
         <v>-224.5489168</v>
       </c>
       <c r="H129" t="n">
-        <v>-225.1499515604752</v>
+        <v>-225.1497890186089</v>
       </c>
     </row>
     <row r="130">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.573104838469447</v>
+        <v>-0.5731118857062485</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.571563720703125</v>
+        <v>-0.5731862783432007</v>
       </c>
       <c r="F130" t="n">
         <v>-225.14877168</v>
@@ -4595,7 +4595,7 @@
         <v>-224.57565879</v>
       </c>
       <c r="H130" t="n">
-        <v>-225.1472225107031</v>
+        <v>-225.1488450683432</v>
       </c>
     </row>
     <row r="131">
@@ -4618,7 +4618,7 @@
         <v>-0.5743027153048268</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.5765938758850098</v>
+        <v>-0.5751655101776123</v>
       </c>
       <c r="F131" t="n">
         <v>-225.2232944</v>
@@ -4627,7 +4627,7 @@
         <v>-224.64899001</v>
       </c>
       <c r="H131" t="n">
-        <v>-225.225583885885</v>
+        <v>-225.2241555201776</v>
       </c>
     </row>
     <row r="132">
@@ -4650,7 +4650,7 @@
         <v>-0.5721145728579383</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.570443868637085</v>
+        <v>-0.5733991861343384</v>
       </c>
       <c r="F132" t="n">
         <v>-225.16144883</v>
@@ -4659,7 +4659,7 @@
         <v>-224.58933419</v>
       </c>
       <c r="H132" t="n">
-        <v>-225.1597780586371</v>
+        <v>-225.1627333761343</v>
       </c>
     </row>
     <row r="133">
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.6055465496179055</v>
+        <v>-0.6055422136351515</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.6049656271934509</v>
+        <v>-0.6035817861557007</v>
       </c>
       <c r="F133" t="n">
         <v>-225.15201382</v>
@@ -4691,7 +4691,7 @@
         <v>-224.54647198</v>
       </c>
       <c r="H133" t="n">
-        <v>-225.1514376071935</v>
+        <v>-225.1500537661557</v>
       </c>
     </row>
     <row r="134">
@@ -4711,10 +4711,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.5697780361431107</v>
+        <v>-0.5697711150230107</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5730262994766235</v>
+        <v>-0.572757363319397</v>
       </c>
       <c r="F134" t="n">
         <v>-225.20440807</v>
@@ -4723,7 +4723,7 @@
         <v>-224.63463806</v>
       </c>
       <c r="H134" t="n">
-        <v>-225.2076643594766</v>
+        <v>-225.2073954233194</v>
       </c>
     </row>
     <row r="135">
@@ -4746,7 +4746,7 @@
         <v>-0.5694083190666404</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5704736709594727</v>
+        <v>-0.5692455768585205</v>
       </c>
       <c r="F135" t="n">
         <v>-225.21550047</v>
@@ -4755,7 +4755,7 @@
         <v>-224.64609355</v>
       </c>
       <c r="H135" t="n">
-        <v>-225.2165672209595</v>
+        <v>-225.2153391268585</v>
       </c>
     </row>
     <row r="136">
@@ -4775,10 +4775,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.6160308292775958</v>
+        <v>-0.6160368873665898</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.6312077641487122</v>
+        <v>-0.6171842813491821</v>
       </c>
       <c r="F136" t="n">
         <v>-225.15638976</v>
@@ -4787,7 +4787,7 @@
         <v>-224.54035778</v>
       </c>
       <c r="H136" t="n">
-        <v>-225.1715655441487</v>
+        <v>-225.1575420613492</v>
       </c>
     </row>
     <row r="137">
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.5704372965686331</v>
+        <v>-0.5704371087797231</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.571911633014679</v>
+        <v>-0.5700290203094482</v>
       </c>
       <c r="F137" t="n">
         <v>-225.18916231</v>
@@ -4819,7 +4819,7 @@
         <v>-224.61872573</v>
       </c>
       <c r="H137" t="n">
-        <v>-225.1906373630147</v>
+        <v>-225.1887547503094</v>
       </c>
     </row>
     <row r="138">
@@ -4842,7 +4842,7 @@
         <v>-0.572587066171758</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.5681588649749756</v>
+        <v>-0.5684592723846436</v>
       </c>
       <c r="F138" t="n">
         <v>-225.15516913</v>
@@ -4851,7 +4851,7 @@
         <v>-224.58258094</v>
       </c>
       <c r="H138" t="n">
-        <v>-225.150739804975</v>
+        <v>-225.1510402123847</v>
       </c>
     </row>
     <row r="139">
@@ -4874,7 +4874,7 @@
         <v>-0.5709141561186757</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.5695997476577759</v>
+        <v>-0.5700986981391907</v>
       </c>
       <c r="F139" t="n">
         <v>-225.21257828</v>
@@ -4883,7 +4883,7 @@
         <v>-224.64166217</v>
       </c>
       <c r="H139" t="n">
-        <v>-225.2112619176578</v>
+        <v>-225.2117608681392</v>
       </c>
     </row>
     <row r="140">
@@ -4906,7 +4906,7 @@
         <v>-0.5750568988056839</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.5757243633270264</v>
+        <v>-0.5769460201263428</v>
       </c>
       <c r="F140" t="n">
         <v>-225.12910319</v>
@@ -4915,7 +4915,7 @@
         <v>-224.55404706</v>
       </c>
       <c r="H140" t="n">
-        <v>-225.129771423327</v>
+        <v>-225.1309930801263</v>
       </c>
     </row>
     <row r="141">
@@ -4935,10 +4935,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-0.6041309648632035</v>
+        <v>-0.6041273032535992</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.6001753807067871</v>
+        <v>-0.6032124757766724</v>
       </c>
       <c r="F141" t="n">
         <v>-225.15140703</v>
@@ -4947,7 +4947,7 @@
         <v>-224.54728165</v>
       </c>
       <c r="H141" t="n">
-        <v>-225.1474570307068</v>
+        <v>-225.1504941257767</v>
       </c>
     </row>
     <row r="142">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.5708747546926656</v>
+        <v>-0.5708764228913457</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5694494247436523</v>
+        <v>-0.5687909126281738</v>
       </c>
       <c r="F142" t="n">
         <v>-225.18083875</v>
@@ -4979,7 +4979,7 @@
         <v>-224.60996314</v>
       </c>
       <c r="H142" t="n">
-        <v>-225.1794125647436</v>
+        <v>-225.1787540526282</v>
       </c>
     </row>
     <row r="143">
@@ -5002,7 +5002,7 @@
         <v>-0.5716860285107872</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.5759640336036682</v>
+        <v>-0.5756606459617615</v>
       </c>
       <c r="F143" t="n">
         <v>-225.16759332</v>
@@ -5011,7 +5011,7 @@
         <v>-224.59590604</v>
       </c>
       <c r="H143" t="n">
-        <v>-225.1718700736037</v>
+        <v>-225.1715666859617</v>
       </c>
     </row>
     <row r="144">
@@ -5031,10 +5031,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.5738537831805159</v>
+        <v>-0.5738506386805673</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.5739908218383789</v>
+        <v>-0.5727646350860596</v>
       </c>
       <c r="F144" t="n">
         <v>-225.14064248</v>
@@ -5043,7 +5043,7 @@
         <v>-224.56679315</v>
       </c>
       <c r="H144" t="n">
-        <v>-225.1407839718384</v>
+        <v>-225.1395577850861</v>
       </c>
     </row>
     <row r="145">
@@ -5066,7 +5066,7 @@
         <v>-0.5697670201357057</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5715632438659668</v>
+        <v>-0.5657112598419189</v>
       </c>
       <c r="F145" t="n">
         <v>-225.20690307</v>
@@ -5075,7 +5075,7 @@
         <v>-224.63713408</v>
       </c>
       <c r="H145" t="n">
-        <v>-225.208697323866</v>
+        <v>-225.2028453398419</v>
       </c>
     </row>
     <row r="146">
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.5998711381602552</v>
+        <v>-0.5998714906526699</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.6021417379379272</v>
+        <v>-0.6009518504142761</v>
       </c>
       <c r="F146" t="n">
         <v>-225.14962269</v>
@@ -5107,7 +5107,7 @@
         <v>-224.54975205</v>
       </c>
       <c r="H146" t="n">
-        <v>-225.1518937879379</v>
+        <v>-225.1507039004143</v>
       </c>
     </row>
     <row r="147">
@@ -5130,7 +5130,7 @@
         <v>-0.5713958008330706</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5694016218185425</v>
+        <v>-0.5733899474143982</v>
       </c>
       <c r="F147" t="n">
         <v>-225.17210243</v>
@@ -5139,7 +5139,7 @@
         <v>-224.6007076</v>
       </c>
       <c r="H147" t="n">
-        <v>-225.1701092218185</v>
+        <v>-225.1740975474144</v>
       </c>
     </row>
     <row r="148">
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.598044873948532</v>
+        <v>-0.5980477072446154</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.6017918586730957</v>
+        <v>-0.6052242517471313</v>
       </c>
       <c r="F148" t="n">
         <v>-225.14886826</v>
@@ -5171,7 +5171,7 @@
         <v>-224.55081876</v>
       </c>
       <c r="H148" t="n">
-        <v>-225.1526106186731</v>
+        <v>-225.1560430117471</v>
       </c>
     </row>
     <row r="149">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.6174589807314714</v>
+        <v>-0.6174663862374243</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.6186441779136658</v>
+        <v>-0.6156691312789917</v>
       </c>
       <c r="F149" t="n">
         <v>-225.15687414</v>
@@ -5203,7 +5203,7 @@
         <v>-224.53940975</v>
       </c>
       <c r="H149" t="n">
-        <v>-225.1580539279137</v>
+        <v>-225.155078881279</v>
       </c>
     </row>
     <row r="150">
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.6088597545523612</v>
+        <v>-0.6088576156552427</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.6085153818130493</v>
+        <v>-0.6047185659408569</v>
       </c>
       <c r="F150" t="n">
         <v>-225.1534599</v>
@@ -5235,7 +5235,7 @@
         <v>-224.54460292</v>
       </c>
       <c r="H150" t="n">
-        <v>-225.153118301813</v>
+        <v>-225.1493214859408</v>
       </c>
     </row>
     <row r="151">
@@ -5255,10 +5255,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.6084762402028379</v>
+        <v>-0.6084749786581357</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.6075253486633301</v>
+        <v>-0.6045696139335632</v>
       </c>
       <c r="F151" t="n">
         <v>-225.1532912</v>
@@ -5267,7 +5267,7 @@
         <v>-224.54481821</v>
       </c>
       <c r="H151" t="n">
-        <v>-225.1523435586633</v>
+        <v>-225.1493878239336</v>
       </c>
     </row>
     <row r="152">
@@ -5290,7 +5290,7 @@
         <v>-0.569353394418747</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.5728952884674072</v>
+        <v>-0.5685631036758423</v>
       </c>
       <c r="F152" t="n">
         <v>-225.2175253</v>
@@ -5299,7 +5299,7 @@
         <v>-224.64817153</v>
       </c>
       <c r="H152" t="n">
-        <v>-225.2210668184674</v>
+        <v>-225.2167346336759</v>
       </c>
     </row>
     <row r="153">
@@ -5322,7 +5322,7 @@
         <v>-0.5728433961297232</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.5700353384017944</v>
+        <v>-0.5687425136566162</v>
       </c>
       <c r="F153" t="n">
         <v>-225.15198392</v>
@@ -5331,7 +5331,7 @@
         <v>-224.57914015</v>
       </c>
       <c r="H153" t="n">
-        <v>-225.1491754884018</v>
+        <v>-225.1478826636566</v>
       </c>
     </row>
   </sheetData>
